--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1914763.455031842</v>
+        <v>1912218.862337557</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968920.061936108</v>
+        <v>9968920.06193611</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.9209832102743</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>96.86671316392797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>83.34020359911827</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159732</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.938717990298</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>264.0281062888315</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>69.98446235664109</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>3.481777442254653</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.8100533469028</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469027</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>4.023709124815304</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>280.359265934558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>55.31717029710227</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2969065816213</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>138.4526267879213</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>250.7831302631794</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0367616438388</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>212.326702149709</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>109.8058856274573</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986284</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184318</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392048</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>133.5893686009543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>130.4114987159097</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.6605461321747</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2851635392041</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>194.0641876011596</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>169.9685329265967</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593124</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>133.5893686009543</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>226.3926032458664</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>315.497131377655</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>302.2669968018388</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>112.8472117853541</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433447</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433447</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268596</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268596</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268596</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268596</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268596</v>
+        <v>322.4426321268585</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.5180226099441</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>487.5180226099441</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5836129486928</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>338.5836129486928</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264292</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264292</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264292</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264292</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099441</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099441</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099441</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.5180226099441</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.87919821146565</v>
+        <v>841.6085069816218</v>
       </c>
       <c r="C5" t="n">
-        <v>53.87919821146565</v>
+        <v>841.6085069816218</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146565</v>
+        <v>483.3428083748713</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146565</v>
+        <v>365.222891212954</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226218</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675776</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746991</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030781</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709205</v>
+        <v>823.5081935709194</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301005</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437441</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.313427108805</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.313427108805</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.313427108805</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="X5" t="n">
-        <v>830.6183702513991</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="Y5" t="n">
-        <v>440.4790382755874</v>
+        <v>841.6085069816218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.7721361461095</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>542.7721361461095</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>472.0807600282902</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814675</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
         <v>958.8971200352498</v>
@@ -4671,25 +4671,25 @@
         <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703776</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703776</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.985128659333</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="V6" t="n">
-        <v>1172.985128659333</v>
+        <v>827.616652187384</v>
       </c>
       <c r="W6" t="n">
-        <v>918.7477719311314</v>
+        <v>573.3792954591825</v>
       </c>
       <c r="X6" t="n">
-        <v>918.7477719311314</v>
+        <v>365.5277952536496</v>
       </c>
       <c r="Y6" t="n">
-        <v>710.9874731661776</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="C7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="D7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="E7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574715</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
         <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="T7" t="n">
-        <v>145.4773021217101</v>
+        <v>145.47730212171</v>
       </c>
       <c r="U7" t="n">
-        <v>145.4773021217101</v>
+        <v>145.47730212171</v>
       </c>
       <c r="V7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="W7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="X7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.4773021217101</v>
+        <v>34.55805631675775</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4799,52 +4799,52 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711877</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457208</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.544009457208</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.544009457208</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
         <v>1289.352831745533</v>
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>581.4725702327146</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="C9" t="n">
-        <v>581.4725702327146</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.553404321748</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>1628.553404321748</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>1400.451814455012</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1165.299706223269</v>
+        <v>937.3096188498821</v>
       </c>
       <c r="W9" t="n">
-        <v>1165.299706223269</v>
+        <v>683.0722621216805</v>
       </c>
       <c r="X9" t="n">
-        <v>957.4482060177365</v>
+        <v>475.2207619161477</v>
       </c>
       <c r="Y9" t="n">
-        <v>749.6879072527827</v>
+        <v>267.4604631511938</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>380.4382088709816</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="U10" t="n">
-        <v>380.4382088709816</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="V10" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W10" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925917</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815101986</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122882</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>311.2940347271681</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793924</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.98966419767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7035232280593</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280593</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438179</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2269.002343845332</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.759229820605</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>545.3854261579734</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591042</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.29148293524</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729353</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794375</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508447</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,16 +6309,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343161</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395872</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003831</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.91737983266</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.91737983266</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.74049493401</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892463</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622248</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343179</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219821</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E31" t="n">
-        <v>449.343984139589</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>302.4540366416786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6631,13 +6631,13 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580259</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>6.257951202385101</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.85777223953514</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>71.22040037418729</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472599</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808349</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.00954930702156</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143945</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00954930701977</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>92.12028678808457</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.74112246244042</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405017</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>92.12028678808281</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>25.74504007796156</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405011</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025313</v>
+        <v>270592.3620253133</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231919</v>
+        <v>115410.0540231931</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854474</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588199</v>
+        <v>62913.63765881993</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197463</v>
+        <v>27875.25362197489</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26454,10 +26454,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-352150.0288615907</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397058</v>
+        <v>21096.71923397036</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370368</v>
+        <v>199917.112937036</v>
       </c>
       <c r="E6" t="n">
-        <v>-152999.7576220475</v>
+        <v>-153034.4955474825</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.449952218</v>
+        <v>448408.712026782</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522178</v>
+        <v>448408.7120267816</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522179</v>
+        <v>448408.7120267818</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522175</v>
+        <v>448408.712026782</v>
       </c>
       <c r="J6" t="n">
-        <v>399378.5052236731</v>
+        <v>399343.7672982373</v>
       </c>
       <c r="K6" t="n">
-        <v>385529.8122933976</v>
+        <v>385495.0743679621</v>
       </c>
       <c r="L6" t="n">
-        <v>420568.1963302432</v>
+        <v>420533.4584048073</v>
       </c>
       <c r="M6" t="n">
-        <v>291297.0694006197</v>
+        <v>291262.3314751844</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522175</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.7120267819</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>8.126322092888501e-15</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594721</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821575</v>
+        <v>210.4296883821577</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262176</v>
+        <v>94.81103524262267</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.450116793152</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.8128584532063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.60460395604676</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871013</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>61.72900879426561</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593223</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>4.854053373819326</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625593</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9916520819638</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>105.7029943896375</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>77.46060320799766</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>202.2009183350497</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>4.48566791301009</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769253</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.0485487447885</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>105.8786727214956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.18364296475284</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.278107311677928</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>82.91519194638136</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060648571</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28153,10 +28153,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.27373675443232e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.031594103666927e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.33561557719332e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
         <v>31.24454604429368</v>
@@ -31291,22 +31291,22 @@
         <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
         <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
         <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
         <v>191.6431310098732</v>
@@ -31318,7 +31318,7 @@
         <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,16 +31358,16 @@
         <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
         <v>354.4276051721893</v>
@@ -31376,7 +31376,7 @@
         <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
         <v>388.3776244374457</v>
@@ -31391,10 +31391,10 @@
         <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757164</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260802</v>
@@ -31452,13 +31452,13 @@
         <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
         <v>165.5147650515001</v>
@@ -31467,16 +31467,16 @@
         <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
         <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209201</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>332.169238832108</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>218.6425359394823</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2063432190399</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33029,10 +33029,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>608.2694430035901</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111251</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,13 +34448,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>439.2440297647763</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
         <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
         <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
         <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
         <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
         <v>27.78676100235245</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410459</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876636</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096343</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>91.80490927281558</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096343</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>485.6519634391657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36677,10 +36677,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096316</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>469.7150632237159</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899059</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998968</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>55.9645526312509</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001044</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>300.6896499849021</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
